--- a/database/industries/folad/kave/cost/yearly.xlsx
+++ b/database/industries/folad/kave/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\kave\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kave\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C027126-4128-4FBC-82BA-B59C166D0F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -207,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,7 +378,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -389,7 +390,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -436,6 +437,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -471,6 +489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -622,17 +657,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -642,7 +677,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,7 +689,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -666,7 +701,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -676,7 +711,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -688,7 +723,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -700,7 +735,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -710,7 +745,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -732,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -742,7 +777,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -764,7 +799,7 @@
         <v>108267785</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -786,7 +821,7 @@
         <v>1569837</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -808,7 +843,7 @@
         <v>51299638</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -830,7 +865,7 @@
         <v>161137260</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -852,7 +887,7 @@
         <v>-2495174</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -874,7 +909,7 @@
         <v>158642086</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -896,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -918,7 +953,7 @@
         <v>-3648234</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -940,7 +975,7 @@
         <v>154993852</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -962,7 +997,7 @@
         <v>1682128</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -984,7 +1019,7 @@
         <v>-5609697</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1006,7 +1041,7 @@
         <v>151066283</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1028,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1050,7 +1085,7 @@
         <v>151066283</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1060,7 +1095,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1070,7 +1105,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1080,7 +1115,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1102,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1112,7 +1147,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1136,7 +1171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1160,7 +1195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
@@ -1184,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
@@ -1208,7 +1243,7 @@
         <v>59663</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>12</v>
       </c>
@@ -1230,7 +1265,7 @@
         <v>59663</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1240,7 +1275,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1250,7 +1285,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1260,7 +1295,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>32</v>
       </c>
@@ -1282,7 +1317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1292,7 +1327,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>24</v>
       </c>
@@ -1316,7 +1351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>27</v>
       </c>
@@ -1340,7 +1375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>29</v>
       </c>
@@ -1364,7 +1399,7 @@
         <v>143374</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
@@ -1388,7 +1423,7 @@
         <v>2440752</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1445,7 @@
         <v>2584126</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1420,7 +1455,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1430,7 +1465,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1440,7 +1475,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>34</v>
       </c>
@@ -1462,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1472,7 +1507,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>24</v>
       </c>
@@ -1496,7 +1531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>27</v>
       </c>
@@ -1520,7 +1555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -1544,7 +1579,7 @@
         <v>143374</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>31</v>
       </c>
@@ -1568,7 +1603,7 @@
         <v>2402681</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>12</v>
       </c>
@@ -1590,7 +1625,7 @@
         <v>2546055</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1600,7 +1635,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1610,7 +1645,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1620,7 +1655,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>35</v>
       </c>
@@ -1642,7 +1677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1652,7 +1687,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>24</v>
       </c>
@@ -1676,7 +1711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>27</v>
       </c>
@@ -1700,7 +1735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
@@ -1724,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>31</v>
       </c>
@@ -1748,7 +1783,7 @@
         <v>97734</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
@@ -1770,7 +1805,7 @@
         <v>97734</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1780,7 +1815,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1790,7 +1825,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1800,7 +1835,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>36</v>
       </c>
@@ -1822,7 +1857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1832,7 +1867,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>27</v>
       </c>
@@ -1880,7 +1915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -1904,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>31</v>
       </c>
@@ -1928,7 +1963,7 @@
         <v>2001317</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -1950,7 +1985,7 @@
         <v>2001317</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1960,7 +1995,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1970,7 +2005,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1980,7 +2015,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>37</v>
       </c>
@@ -2002,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2012,7 +2047,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>24</v>
       </c>
@@ -2036,7 +2071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>27</v>
       </c>
@@ -2060,7 +2095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>29</v>
       </c>
@@ -2084,7 +2119,7 @@
         <v>12718885</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>31</v>
       </c>
@@ -2108,7 +2143,7 @@
         <v>97299022</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>12</v>
       </c>
@@ -2130,7 +2165,7 @@
         <v>110017907</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2140,7 +2175,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2150,7 +2185,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2160,7 +2195,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>38</v>
       </c>
@@ -2182,7 +2217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2192,7 +2227,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>24</v>
       </c>
@@ -2216,7 +2251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>27</v>
       </c>
@@ -2240,7 +2275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>29</v>
       </c>
@@ -2264,7 +2299,7 @@
         <v>12718885</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>31</v>
       </c>
@@ -2288,7 +2323,7 @@
         <v>95548900</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>12</v>
       </c>
@@ -2310,7 +2345,7 @@
         <v>108267785</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2320,7 +2355,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2330,7 +2365,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2340,7 +2375,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>39</v>
       </c>
@@ -2362,7 +2397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2372,7 +2407,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>24</v>
       </c>
@@ -2396,7 +2431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>27</v>
       </c>
@@ -2420,7 +2455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>29</v>
       </c>
@@ -2444,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>31</v>
       </c>
@@ -2468,7 +2503,7 @@
         <v>3751439</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>12</v>
       </c>
@@ -2490,7 +2525,7 @@
         <v>3751439</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2500,7 +2535,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2510,7 +2545,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2520,7 +2555,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>40</v>
       </c>
@@ -2542,7 +2577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2552,7 +2587,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>31</v>
       </c>
@@ -2576,7 +2611,7 @@
         <v>33543687</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2586,7 +2621,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2596,7 +2631,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2606,7 +2641,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>42</v>
       </c>
@@ -2628,7 +2663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2638,7 +2673,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>29</v>
       </c>
@@ -2662,7 +2697,7 @@
         <v>88711238</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>31</v>
       </c>
@@ -2686,7 +2721,7 @@
         <v>39864362</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2696,7 +2731,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2706,7 +2741,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2716,7 +2751,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>43</v>
       </c>
@@ -2738,7 +2773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2748,7 +2783,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>29</v>
       </c>
@@ -2772,7 +2807,7 @@
         <v>88711238</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>31</v>
       </c>
@@ -2796,7 +2831,7 @@
         <v>39767618</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2806,7 +2841,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2816,7 +2851,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2826,7 +2861,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
         <v>44</v>
       </c>
@@ -2848,7 +2883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2858,7 +2893,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>31</v>
       </c>
@@ -2882,7 +2917,7 @@
         <v>38384175</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2892,7 +2927,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -2902,7 +2937,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -2912,7 +2947,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>45</v>
       </c>
@@ -2934,7 +2969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -2944,7 +2979,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>46</v>
       </c>
@@ -2966,7 +3001,7 @@
         <v>2839025</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>47</v>
       </c>
@@ -2988,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>48</v>
       </c>
@@ -3010,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>49</v>
       </c>
@@ -3032,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>50</v>
       </c>
@@ -3054,7 +3089,7 @@
         <v>22281697</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>51</v>
       </c>
@@ -3076,7 +3111,7 @@
         <v>16532327</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>52</v>
       </c>
@@ -3098,7 +3133,7 @@
         <v>3109312</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>53</v>
       </c>
@@ -3120,7 +3155,7 @@
         <v>3329832</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>54</v>
       </c>
@@ -3142,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>55</v>
       </c>
@@ -3164,7 +3199,7 @@
         <v>3207445</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="14" t="s">
         <v>12</v>
       </c>
@@ -3186,7 +3221,7 @@
         <v>51299638</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B149" s="7" t="s">
         <v>56</v>
       </c>
@@ -3195,7 +3230,7 @@
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>57</v>
       </c>
@@ -3206,7 +3241,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>59</v>
       </c>
